--- a/scenarios-examples/not ready/steel_raw/data/units/calc_shared.xlsx
+++ b/scenarios-examples/not ready/steel_raw/data/units/calc_shared.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/not ready/steel_raw/data/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B6E172-3B1F-7944-8A56-27C6ED636A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CCD463-991C-FA45-A86D-1CDFBA24BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="500" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lime" sheetId="4" r:id="rId1"/>
-    <sheet name="Charcoal" sheetId="22" r:id="rId2"/>
-    <sheet name="Syngas" sheetId="21" r:id="rId3"/>
-    <sheet name="Oxygen" sheetId="9" r:id="rId4"/>
-    <sheet name="Electricity" sheetId="10" r:id="rId5"/>
-    <sheet name="Heat" sheetId="16" r:id="rId6"/>
-    <sheet name="WWT" sheetId="26" r:id="rId7"/>
-    <sheet name="CO2 Capture" sheetId="13" r:id="rId8"/>
-    <sheet name="CLC Capture" sheetId="25" r:id="rId9"/>
-    <sheet name="CO2 Compress" sheetId="24" r:id="rId10"/>
-    <sheet name="CO2 Storage" sheetId="14" r:id="rId11"/>
+    <sheet name="simple_lime" sheetId="4" r:id="rId1"/>
+    <sheet name="simple_charcoal" sheetId="22" r:id="rId2"/>
+    <sheet name="simple_syngas" sheetId="21" r:id="rId3"/>
+    <sheet name="simple_oxygen" sheetId="9" r:id="rId4"/>
+    <sheet name="simple_power" sheetId="10" r:id="rId5"/>
+    <sheet name="simple_heat" sheetId="16" r:id="rId6"/>
+    <sheet name="simple_CO2capture" sheetId="13" r:id="rId7"/>
+    <sheet name="simple_compression" sheetId="24" r:id="rId8"/>
+    <sheet name="simple_CO2storage" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="135">
   <si>
     <t>combustion</t>
   </si>
@@ -52,12 +50,6 @@
     <t>temp</t>
   </si>
   <si>
-    <t>Addition</t>
-  </si>
-  <si>
-    <t>energycontent</t>
-  </si>
-  <si>
     <t>Remainder</t>
   </si>
   <si>
@@ -244,9 +236,6 @@
     <t>compressed CO2</t>
   </si>
   <si>
-    <t>O2 demand</t>
-  </si>
-  <si>
     <t>fuel energy demand</t>
   </si>
   <si>
@@ -403,51 +392,9 @@
     <t>carbon debt factor</t>
   </si>
   <si>
-    <t>CaCO3 demand</t>
-  </si>
-  <si>
     <t>CO2__calcination</t>
   </si>
   <si>
-    <t>CO2__fluegas</t>
-  </si>
-  <si>
-    <t>captured CO2__fluegas</t>
-  </si>
-  <si>
-    <t>CO2 In</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Fuel Energy Demand</t>
-  </si>
-  <si>
-    <t>fuel energy</t>
-  </si>
-  <si>
-    <t>Biofuel Cofire Rate</t>
-  </si>
-  <si>
-    <t>lookupratio-fuels</t>
-  </si>
-  <si>
-    <t>CO2 Out</t>
-  </si>
-  <si>
-    <t>captured CO2__fossilfuel</t>
-  </si>
-  <si>
-    <t>captured CO2__biofuel</t>
-  </si>
-  <si>
-    <t>captured CO2__fuel</t>
-  </si>
-  <si>
-    <t>captured CO2__process</t>
-  </si>
-  <si>
     <t>CONSUMED generator use (electricity)</t>
   </si>
   <si>
@@ -461,12 +408,6 @@
   </si>
   <si>
     <t>energy demand</t>
-  </si>
-  <si>
-    <t>effluent</t>
-  </si>
-  <si>
-    <t>discharge</t>
   </si>
   <si>
     <t>energy use</t>
@@ -633,7 +574,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -661,8 +602,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,104 +921,104 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1088,22 +1027,22 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1111,543 +1050,184 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,97 +1252,97 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1770,34 +1350,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1809,126 +1389,126 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1953,57 +1533,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -2014,79 +1594,79 @@
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2100,13 +1680,13 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2119,219 +1699,219 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
@@ -2339,39 +1919,39 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
@@ -2379,22 +1959,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
@@ -2402,22 +1982,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
@@ -2425,22 +2005,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
         <v>4</v>
@@ -2448,22 +2028,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s">
         <v>4</v>
@@ -2471,85 +2051,85 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2562,66 +2142,66 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2631,25 +2211,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2659,25 +2239,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2687,22 +2267,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="1"/>
@@ -2713,22 +2293,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2739,22 +2319,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2773,7 +2353,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2790,54 +2370,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2845,79 +2425,79 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2929,63 +2509,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2994,22 +2574,22 @@
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -3018,22 +2598,22 @@
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -3041,106 +2621,106 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3149,112 +2729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3271,57 +2750,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -3329,22 +2808,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -3352,162 +2831,297 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,485 +3129,225 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="G10" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>